--- a/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.46677384630982</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274226</v>
+        <v>1.019169272890139</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.04824190763466873</v>
       </c>
       <c r="E2">
-        <v>1.441922359378012</v>
+        <v>1.35169962688731</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.5084535737087279</v>
       </c>
       <c r="G2">
-        <v>0.0007686809952637855</v>
+        <v>0.0007896385517037115</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01092094002687105</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003536527785124033</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.435151477765999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293328</v>
+        <v>3.02011174815118</v>
       </c>
       <c r="C3">
-        <v>0.8738301893891673</v>
+        <v>0.8990605546520669</v>
       </c>
       <c r="D3">
-        <v>0.03462429524203259</v>
+        <v>0.0433835340809452</v>
       </c>
       <c r="E3">
-        <v>1.235854890260782</v>
+        <v>1.176740016824183</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.468187038062311</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087419503</v>
+        <v>0.000793366441376707</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00766975902495437</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001965288275290966</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.348594257482659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389137</v>
+        <v>2.745669458445775</v>
       </c>
       <c r="C4">
-        <v>0.7993378641016591</v>
+        <v>0.8258832939075091</v>
       </c>
       <c r="D4">
-        <v>0.03195374705860843</v>
+        <v>0.04041041276209967</v>
       </c>
       <c r="E4">
-        <v>1.112018506115731</v>
+        <v>1.069666178277558</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.4441198563540496</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430916593</v>
+        <v>0.0007957272508090085</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005904022270549425</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001270814676121557</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.046477410931772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.297464469391542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378635</v>
+        <v>2.633730900298815</v>
       </c>
       <c r="C5">
-        <v>0.7690066449735298</v>
+        <v>0.7977722387358028</v>
       </c>
       <c r="D5">
-        <v>0.03086722398415276</v>
+        <v>0.03928077046956702</v>
       </c>
       <c r="E5">
-        <v>1.062125557461115</v>
+        <v>1.02608314129057</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.4336700664951891</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445427952</v>
+        <v>0.0007967124296093884</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00523637476029204</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001110499418202515</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.274436995028537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.615103766652396</v>
       </c>
       <c r="C6">
-        <v>0.7639712490239674</v>
+        <v>0.7950489896263662</v>
       </c>
       <c r="D6">
-        <v>0.03068689589320428</v>
+        <v>0.03919122151063448</v>
       </c>
       <c r="E6">
-        <v>1.053872496020546</v>
+        <v>1.018830727099584</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.4309748955527013</v>
       </c>
       <c r="G6">
-        <v>0.000779081286801657</v>
+        <v>0.0007968828780179578</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005126972417599962</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001168165231651308</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.267397047251904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127143</v>
+        <v>2.74406360535454</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678387</v>
+        <v>0.8308092758339853</v>
       </c>
       <c r="D7">
-        <v>0.03193908754566621</v>
+        <v>0.04066341026042863</v>
       </c>
       <c r="E7">
-        <v>1.111343450545846</v>
+        <v>1.069026406947373</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.4413300423773592</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703471185</v>
+        <v>0.0007957557770997617</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005890106154369357</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001472853056091239</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185844</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.28828808501018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237348</v>
+        <v>3.312653545137607</v>
       </c>
       <c r="C8">
-        <v>0.9534495003956067</v>
+        <v>0.9847298999007421</v>
       </c>
       <c r="D8">
-        <v>0.03748176335487585</v>
+        <v>0.04692401796475565</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.291216389130142</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042933</v>
+        <v>0.4909136236972671</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717353615</v>
+        <v>0.0007909279253908628</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009741767389663553</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003174773938467546</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.393125671300481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864412</v>
+        <v>4.427610317638539</v>
       </c>
       <c r="C9">
-        <v>1.25854120576895</v>
+        <v>1.282110248089054</v>
       </c>
       <c r="D9">
-        <v>0.04845951825805628</v>
+        <v>0.0588090931990024</v>
       </c>
       <c r="E9">
-        <v>1.904628270821107</v>
+        <v>1.730915313986756</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.5988199823157387</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395391445</v>
+        <v>0.0007819898167375172</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01935802986678037</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008607690668569923</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.471852032810375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.632718893241275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806890804</v>
+        <v>5.24749449069725</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.50644471872306</v>
       </c>
       <c r="D10">
-        <v>0.05664530721055883</v>
+        <v>0.06925275944912102</v>
       </c>
       <c r="E10">
-        <v>2.322005527160329</v>
+        <v>1.955498156088424</v>
       </c>
       <c r="F10">
-        <v>0.6788586430795363</v>
+        <v>0.6683724546327312</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425436127</v>
+        <v>0.0007759177289413412</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02725836382229918</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0143664161419883</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.775547518866148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351865</v>
+        <v>5.612142301903873</v>
       </c>
       <c r="C11">
-        <v>1.589203920418356</v>
+        <v>1.610434802784823</v>
       </c>
       <c r="D11">
-        <v>0.06040982474324608</v>
+        <v>0.08861588644301577</v>
       </c>
       <c r="E11">
-        <v>2.519515414215107</v>
+        <v>1.267337406619561</v>
       </c>
       <c r="F11">
-        <v>0.7310970168233126</v>
+        <v>0.5871507068896307</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524084341</v>
+        <v>0.0007746196692268896</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04270868006982909</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01643561128637661</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.474547141099578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319245</v>
+        <v>5.74725555498668</v>
       </c>
       <c r="C12">
-        <v>1.628738126228427</v>
+        <v>1.642389293035194</v>
       </c>
       <c r="D12">
-        <v>0.06184261659738866</v>
+        <v>0.1037805964393641</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>0.7713189373199754</v>
       </c>
       <c r="F12">
-        <v>0.7514676455013642</v>
+        <v>0.5121260620343264</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563734144</v>
+        <v>0.0007745905169331831</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07854308646568597</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01664005842228544</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.224683832186997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065252074</v>
+        <v>5.71206086016997</v>
       </c>
       <c r="C13">
-        <v>1.62021628777336</v>
+        <v>1.628934670659646</v>
       </c>
       <c r="D13">
-        <v>0.0615336923972265</v>
+        <v>0.1168170525753141</v>
       </c>
       <c r="E13">
-        <v>2.579174270918756</v>
+        <v>0.3948377359290731</v>
       </c>
       <c r="F13">
-        <v>0.7470530197557252</v>
+        <v>0.4334589186537912</v>
       </c>
       <c r="G13">
-        <v>0.0007429505859019447</v>
+        <v>0.0007755528712741501</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1314041879758321</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01567717074598907</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9858811040282944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.981994411985397</v>
+        <v>5.610402796626545</v>
       </c>
       <c r="C14">
-        <v>1.59245311887048</v>
+        <v>1.600782500645209</v>
       </c>
       <c r="D14">
-        <v>0.06052754737639532</v>
+        <v>0.1251548963565625</v>
       </c>
       <c r="E14">
-        <v>2.525749484437696</v>
+        <v>0.2040035724406977</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.3772055239524477</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843727255</v>
+        <v>0.0007766576504858142</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1788295655706946</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01459786682350295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8260307867355579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981730897</v>
+        <v>5.549222564864976</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.586479300100507</v>
       </c>
       <c r="D15">
-        <v>0.05991224352278834</v>
+        <v>0.1266680095887693</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>0.1664673984577796</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.361549071281118</v>
       </c>
       <c r="G15">
-        <v>0.000744721346776587</v>
+        <v>0.0007771664842525621</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1906857109769646</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01418120435697556</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422734</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7848470606577962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.53363491942747</v>
+        <v>5.202401853822494</v>
       </c>
       <c r="C16">
-        <v>1.478438606471798</v>
+        <v>1.495615476278033</v>
       </c>
       <c r="D16">
-        <v>0.05640022152631019</v>
+        <v>0.1191748546277722</v>
       </c>
       <c r="E16">
-        <v>2.309269822762175</v>
+        <v>0.1619581450697751</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628423</v>
+        <v>0.3473887037929586</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130532989</v>
+        <v>0.0007795445118418047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.175491235802042</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01192358401845794</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230721</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7706965671103063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728546</v>
+        <v>4.991035451832488</v>
       </c>
       <c r="C17">
-        <v>1.419157990854444</v>
+        <v>1.441267988981963</v>
       </c>
       <c r="D17">
-        <v>0.05425707574409699</v>
+        <v>0.1089952125854552</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>0.2459753982704243</v>
       </c>
       <c r="F17">
-        <v>0.6467009445061791</v>
+        <v>0.365796307107324</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215070161</v>
+        <v>0.000780802229109395</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1367689001963726</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01081278822335374</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8422055574621652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104238</v>
+        <v>4.871728470037112</v>
       </c>
       <c r="C18">
-        <v>1.385141676507658</v>
+        <v>1.407347280808153</v>
       </c>
       <c r="D18">
-        <v>0.05302813720694388</v>
+        <v>0.09563455489917061</v>
       </c>
       <c r="E18">
-        <v>2.135550865997416</v>
+        <v>0.4790218023010837</v>
       </c>
       <c r="F18">
-        <v>0.6304566638523852</v>
+        <v>0.4181691898324047</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468301177</v>
+        <v>0.0007811315644281613</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08461431799794639</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01026415122278657</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.011170216096644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647344</v>
+        <v>4.83500880465499</v>
       </c>
       <c r="C19">
-        <v>1.373637281602043</v>
+        <v>1.40339474351282</v>
       </c>
       <c r="D19">
-        <v>0.05261264338035687</v>
+        <v>0.08223365033970964</v>
       </c>
       <c r="E19">
-        <v>2.114339516159717</v>
+        <v>0.9131096264680565</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.4940337535870114</v>
       </c>
       <c r="G19">
-        <v>0.0007528199807482719</v>
+        <v>0.0007805737522911431</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0420758044946794</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01072812603060136</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.251779364725252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771633</v>
+        <v>5.031627643970751</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.464437765624723</v>
       </c>
       <c r="D20">
-        <v>0.05448482054296733</v>
+        <v>0.06744620694644254</v>
       </c>
       <c r="E20">
-        <v>2.210250434711142</v>
+        <v>1.891890550245648</v>
       </c>
       <c r="F20">
-        <v>0.6497341005681392</v>
+        <v>0.6409981226065185</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798648098</v>
+        <v>0.0007775358304290444</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02500230937025849</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01333659226125761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.663351909176043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.707873429777266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798156</v>
+        <v>5.663603663768583</v>
       </c>
       <c r="C21">
-        <v>1.600603352844928</v>
+        <v>1.636139845533137</v>
       </c>
       <c r="D21">
-        <v>0.06082286766925193</v>
+        <v>0.07300782904698622</v>
       </c>
       <c r="E21">
-        <v>2.541403832657366</v>
+        <v>2.224275313971731</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503735</v>
+        <v>0.7181090159483858</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231604488</v>
+        <v>0.0007726865873697398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03281830044685519</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01854060229383236</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.895197017569245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405798</v>
+        <v>6.077296100170315</v>
       </c>
       <c r="C22">
-        <v>1.715993697539091</v>
+        <v>1.741715857843474</v>
       </c>
       <c r="D22">
-        <v>0.06500821190251571</v>
+        <v>0.07705961331203781</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.390794747381719</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.7665380570823004</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033399157</v>
+        <v>0.000769642109448282</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03795447932891705</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02207615676014552</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.010982655735347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.856533976777541</v>
       </c>
       <c r="C23">
-        <v>1.654312258275127</v>
+        <v>1.678693843975964</v>
       </c>
       <c r="D23">
-        <v>0.06276995956053355</v>
+        <v>0.0745603636229859</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.301860511110718</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224749</v>
+        <v>0.7437029678328884</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873020089</v>
+        <v>0.0007712498272074986</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03518443906473134</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01990882957891671</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.959238721746175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.022345505370311</v>
       </c>
       <c r="C24">
-        <v>1.422610659040799</v>
+        <v>1.452387582760707</v>
       </c>
       <c r="D24">
-        <v>0.0543818473026505</v>
+        <v>0.0656626206233426</v>
       </c>
       <c r="E24">
-        <v>2.204952766859662</v>
+        <v>1.967538615152051</v>
       </c>
       <c r="F24">
-        <v>0.6483618008775949</v>
+        <v>0.6548386594035378</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954645825</v>
+        <v>0.0007774558731151467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02548343545092102</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01297716825878936</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.754635322995938</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.34516289540062</v>
+        <v>4.125615602166818</v>
       </c>
       <c r="C25">
-        <v>1.175662098009525</v>
+        <v>1.210872665251486</v>
       </c>
       <c r="D25">
-        <v>0.04547296341502971</v>
+        <v>0.05608168448596018</v>
       </c>
       <c r="E25">
-        <v>1.75639716116838</v>
+        <v>1.611287029704712</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.5640920550256467</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889205</v>
+        <v>0.0007843738772956623</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01649207729639268</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007186637996994705</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425194</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.549647283128024</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>0.897540560087549</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.1093178668343384</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.06822333755788179</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>0.04411822794082809</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>0.9076607641028858</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.000837892784235128</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.02144932922388709</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.02353890213440613</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5783036788627065</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06153824529997021</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8250023505599984</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1458947427404595</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.1934925440245081</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
+        <v>2.427043901372002</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>0.7819262638989244</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.1005579754417028</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.06102795912318726</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>0.04190900371623485</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>0.8923178389042405</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.0008406483084359226</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.02512090675606993</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.02731593902612151</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5799109756680743</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05971959984009967</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7196389459549977</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1314315455481605</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1694278969455212</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
+        <v>2.411108034270796</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>0.7107490465723174</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.09522582240283128</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.05663575430943268</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>0.04053881613659804</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>0.8833854520185156</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.0008424026522567586</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.02761092454101866</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.02990260628556962</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5811303501941296</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05856398500739068</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6549636957582692</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1226071982715666</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1546552924620066</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
+        <v>2.402759083593224</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>0.6814239128146937</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.09324477052127378</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.05489202470275245</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>0.03995887456785496</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>0.8792107725557301</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.0008431383409498949</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.02869004123307906</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.03112048126775768</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.581198875941709</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05805626856350177</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.628883694735336</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1191470545854756</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1486557573543443</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
+        <v>2.397795566468375</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>0.6762216223683595</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.09314018156178605</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.0546519313934013</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>0.03984036685042369</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>0.877725319620339</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.0008432674467531709</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.02888099867857452</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.03145394712456895</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5806206694319869</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05793872630020758</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6248911815835356</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1187238701042546</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1476847024031436</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
+        <v>2.394655674640035</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>0.7094496477584755</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.09581176988156415</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.05674646821816509</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>0.04047107861752153</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>0.8811494278329519</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.0008424285419741966</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.02764703624151166</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.03024882155638231</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5795154348894265</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05846855184443456</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6555379067922331</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1229724618115213</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1546431604865113</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
+        <v>2.396322945625471</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>0.8565032285646623</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.1071079888483553</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.06591524673259386</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>0.04328047614556318</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>0.8994033250989517</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.0008388499346762557</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.02268985939368084</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.025181402645571</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5766931091214111</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.0608042554021937</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7899010139810514</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1414440864316973</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.1852845690263187</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
+        <v>2.412890647824966</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>1.145166367657737</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.1285992965741372</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.08387938572536768</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>0.04879434718623088</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>0.9431047844131939</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.0008322933642820492</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.01488604206344074</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.01694625797362992</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5759117847810202</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06524053715710565</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.052110216887428</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1774244159952545</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2453239415270154</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
+        <v>2.46852066135898</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>1.355703949651001</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>0.1463132709682924</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.09601566365013525</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>0.05125669662321464</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>0.9651091571785102</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>0.0008278466451940936</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.01086139158410049</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.01259993501140766</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5694309615317579</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06733876720603238</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.248731929620561</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1978884999533932</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.2863280985776413</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
+        <v>2.485306053634616</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>1.445463841250444</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>0.1670994104493957</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.09062270220073998</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>0.04113001684919126</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>0.8736337859371588</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.0008265303477595558</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.02928431776761542</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.01206165528083947</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5119965146298497</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06484973080693734</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.365852427580393</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1547450525362919</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.2769225978282464</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
+        <v>2.242956395095689</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>1.478187402284391</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>0.1810656102375958</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.08342312885205416</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.03473576110062648</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>0.7985492999745105</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.0008262611776739259</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.06820773325975438</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.01186684556445616</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4705435174640655</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06900265587700893</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.422776263911516</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1185805518434648</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2603214401686884</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
+        <v>2.054005132861391</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>1.467141707460712</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.1914073203426199</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.07467322766076734</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.03072967855092523</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.7282190432718849</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.0008268066695240791</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1245960774494819</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.01235470521601734</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4363099983364407</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0781649381461591</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.437565629982345</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08649613751249774</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2374523919848315</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
+        <v>1.884687260009869</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>1.439305237372622</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.1973216656353571</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.06796225622140639</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.02934877079161768</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.6814397713093072</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.0008275591413357109</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1745516268463234</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.0131166292597138</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4158140519881073</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08761173236802833</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.429099331690907</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06684812131886986</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2188065991155241</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
+        <v>1.775596616305606</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>1.422816154372214</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.198162912938372</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.06603998323697624</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.02918171270319925</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.6700692418202649</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.0008279311299107062</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1873629824295904</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01360456689050249</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4115769734710284</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09013544130723972</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.418254345603316</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06237359563213474</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2129827678224281</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
+        <v>1.750370769140531</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>1.333725897003404</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.1884093875354438</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.06289117971913072</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.02898201015951751</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.6739084184028954</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.0008297297609304926</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1763260410691032</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01547880591287143</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4202094891544697</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08697044002236254</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.330110142298679</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06112152416229222</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2006481259848307</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
+        <v>1.773495103611126</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>1.280299020135146</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.1777988223337417</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.06399804235870477</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.02931879345480298</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.7013246357228695</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.0008307143373581733</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1395525399408371</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01656029103150747</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.437448366449015</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07901690975468512</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.267270288071956</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07001464183056783</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.200979985685052</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
+        <v>1.848349718229883</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>1.252108993241933</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.1650317414467253</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.06889964567454854</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.03144589193060332</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>0.7555200771720934</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.000831057874152604</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08698339289733781</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.01663893301113983</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4666873167643111</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06909641729857974</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.218445163784509</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.09114997152011739</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2123535394016081</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
+        <v>1.985519149608123</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>1.244371195575582</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.1537290779516098</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.07693931477805904</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.03672254487660265</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>0.8274869277521191</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.0008308386308587042</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.04107055264120163</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01648086840622831</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5040516072429213</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06301439771102491</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.18673173379301</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1252984970610953</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2322937533800911</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
+        <v>2.162595205989305</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>1.297506685324606</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>0.1437070407203578</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.09318822729984788</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>0.05036906970948962</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>0.9520464461272695</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.0008290399373603116</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.01186107673740056</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01459315400835237</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5659588820373287</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06650805410931948</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.20012773250042</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1935140244479001</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2756325136678868</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
+        <v>2.459946464124727</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>1.460314853182069</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>0.1551682918623527</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.1044811641925349</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>0.05461657622147342</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>0.9894905852212617</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>0.0008255818782163023</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.008596924866291517</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.0114032058152036</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5723299527563235</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06959796794994499</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.346220871787608</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2192510804094638</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3121453539654553</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
+        <v>2.524575663731156</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>1.567671450482891</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>0.1625505893995864</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.1110644023192293</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>0.05669551139141404</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>1.011301155728368</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>0.0008233948777583222</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.00692003510953737</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.009297911021512562</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5755078950087835</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0712155852122347</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.442178038150246</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2322677323916054</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3343109905835604</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
+        <v>2.561717446935205</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>1.511488897906133</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>0.1578312244404572</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.1073853877384749</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>0.05565538107189383</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>1.002100356609922</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>0.0008245432018193502</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.007778567869915431</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.01003780000321264</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5756059460379674</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07045038371271772</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.389817132208094</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2248117296550305</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3223960783230098</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
+        <v>2.548969187061971</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>1.296943130615233</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>0.1413767827931025</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.09378511101686371</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>0.05159849206994238</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>0.9645774503465319</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>0.0008290109270021571</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.01159530533690997</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01399451045304634</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5736943820956917</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06735467879537538</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.193741536110764</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1975423264355314</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.2774901799746985</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
+        <v>2.492956996109427</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>1.065516914627693</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.1238716758456988</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.07923777194307746</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>0.04720575471320565</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>0.9269503292411372</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.0008340411233673985</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01680352957812348</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.01946648783421345</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5730654734119476</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06391836455133681</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9827977088907289</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.168385730657711</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.22918969626323</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>2.440854273924401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.897540560087549</v>
+        <v>0.8891783775891327</v>
       </c>
       <c r="C2">
-        <v>0.1093178668343384</v>
+        <v>0.1232580246925892</v>
       </c>
       <c r="D2">
-        <v>0.06822333755788179</v>
+        <v>0.07723069309725616</v>
       </c>
       <c r="E2">
-        <v>0.04411822794082809</v>
+        <v>0.04792650326980841</v>
       </c>
       <c r="F2">
-        <v>0.9076607641028858</v>
+        <v>0.7867903162003032</v>
       </c>
       <c r="G2">
-        <v>0.000837892784235128</v>
+        <v>0.03792447731155857</v>
       </c>
       <c r="H2">
-        <v>0.02144932922388709</v>
+        <v>0.01424164032979597</v>
       </c>
       <c r="I2">
-        <v>0.02353890213440613</v>
+        <v>0.01362310225659336</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5783036788627065</v>
+        <v>0.4783296551918141</v>
       </c>
       <c r="L2">
-        <v>0.06153824529997021</v>
+        <v>0.1990938184019697</v>
       </c>
       <c r="M2">
-        <v>0.8250023505599984</v>
+        <v>0.1608096431357158</v>
       </c>
       <c r="N2">
-        <v>0.1458947427404595</v>
+        <v>0.06335895561384408</v>
       </c>
       <c r="O2">
-        <v>0.1934925440245081</v>
+        <v>0.8634646540799906</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1644035172708982</v>
       </c>
       <c r="Q2">
-        <v>2.427043901372002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1956592893023448</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2.022244058379314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7819262638989244</v>
+        <v>0.7763172725630909</v>
       </c>
       <c r="C3">
-        <v>0.1005579754417028</v>
+        <v>0.1118934064375381</v>
       </c>
       <c r="D3">
-        <v>0.06102795912318726</v>
+        <v>0.06982548201558814</v>
       </c>
       <c r="E3">
-        <v>0.04190900371623485</v>
+        <v>0.04616551083178777</v>
       </c>
       <c r="F3">
-        <v>0.8923178389042405</v>
+        <v>0.7735691535884541</v>
       </c>
       <c r="G3">
-        <v>0.0008406483084359226</v>
+        <v>0.04293160733166534</v>
       </c>
       <c r="H3">
-        <v>0.02512090675606993</v>
+        <v>0.0168781667850641</v>
       </c>
       <c r="I3">
-        <v>0.02731593902612151</v>
+        <v>0.01597611243843522</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5799109756680743</v>
+        <v>0.4810524594555545</v>
       </c>
       <c r="L3">
-        <v>0.05971959984009967</v>
+        <v>0.2036061169582624</v>
       </c>
       <c r="M3">
-        <v>0.7196389459549977</v>
+        <v>0.1600987349243308</v>
       </c>
       <c r="N3">
-        <v>0.1314315455481605</v>
+        <v>0.06198671544831447</v>
       </c>
       <c r="O3">
-        <v>0.1694278969455212</v>
+        <v>0.7538500840852009</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1485973029565173</v>
       </c>
       <c r="Q3">
-        <v>2.411108034270796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1711109072436301</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.008389895351343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7107490465723174</v>
+        <v>0.7067108466513048</v>
       </c>
       <c r="C4">
-        <v>0.09522582240283128</v>
+        <v>0.1050215389127516</v>
       </c>
       <c r="D4">
-        <v>0.05663575430943268</v>
+        <v>0.06532274696647278</v>
       </c>
       <c r="E4">
-        <v>0.04053881613659804</v>
+        <v>0.04507241818399699</v>
       </c>
       <c r="F4">
-        <v>0.8833854520185156</v>
+        <v>0.7657089643992023</v>
       </c>
       <c r="G4">
-        <v>0.0008424026522567586</v>
+        <v>0.04627789606981958</v>
       </c>
       <c r="H4">
-        <v>0.02761092454101866</v>
+        <v>0.01867547482439269</v>
       </c>
       <c r="I4">
-        <v>0.02990260628556962</v>
+        <v>0.01761489196711219</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5811303501941296</v>
+        <v>0.4828182406400359</v>
       </c>
       <c r="L4">
-        <v>0.05856398500739068</v>
+        <v>0.2064249666193874</v>
       </c>
       <c r="M4">
-        <v>0.6549636957582692</v>
+        <v>0.1601935234370693</v>
       </c>
       <c r="N4">
-        <v>0.1226071982715666</v>
+        <v>0.06110838347167036</v>
       </c>
       <c r="O4">
-        <v>0.1546552924620066</v>
+        <v>0.686550426025633</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1389788782201862</v>
       </c>
       <c r="Q4">
-        <v>2.402759083593224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1560319049536112</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.000557571817112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6814239128146937</v>
+        <v>0.6780040371503446</v>
       </c>
       <c r="C5">
-        <v>0.09324477052127378</v>
+        <v>0.1024501230231323</v>
       </c>
       <c r="D5">
-        <v>0.05489202470275245</v>
+        <v>0.06353923581864507</v>
       </c>
       <c r="E5">
-        <v>0.03995887456785496</v>
+        <v>0.04460693008172356</v>
       </c>
       <c r="F5">
-        <v>0.8792107725557301</v>
+        <v>0.7619608613280136</v>
       </c>
       <c r="G5">
-        <v>0.0008431383409498949</v>
+        <v>0.04771802583174201</v>
       </c>
       <c r="H5">
-        <v>0.02869004123307906</v>
+        <v>0.01945656230042897</v>
       </c>
       <c r="I5">
-        <v>0.03112048126775768</v>
+        <v>0.01843521414344274</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.581198875941709</v>
+        <v>0.4831284398262881</v>
       </c>
       <c r="L5">
-        <v>0.05805626856350177</v>
+        <v>0.2073755436688174</v>
       </c>
       <c r="M5">
-        <v>0.628883694735336</v>
+        <v>0.160252103659575</v>
       </c>
       <c r="N5">
-        <v>0.1191470545854756</v>
+        <v>0.06071825459248137</v>
       </c>
       <c r="O5">
-        <v>0.1486557573543443</v>
+        <v>0.6593923131120221</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1352034174395484</v>
       </c>
       <c r="Q5">
-        <v>2.397795566468375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1499048798525529</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.995776096849596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6762216223683595</v>
+        <v>0.6729112549302272</v>
       </c>
       <c r="C6">
-        <v>0.09314018156178605</v>
+        <v>0.1022756012873387</v>
       </c>
       <c r="D6">
-        <v>0.0546519313934013</v>
+        <v>0.06329354179310798</v>
       </c>
       <c r="E6">
-        <v>0.03984036685042369</v>
+        <v>0.04450867796947833</v>
       </c>
       <c r="F6">
-        <v>0.877725319620339</v>
+        <v>0.760600043750074</v>
       </c>
       <c r="G6">
-        <v>0.0008432674467531709</v>
+        <v>0.04797330891557361</v>
       </c>
       <c r="H6">
-        <v>0.02888099867857452</v>
+        <v>0.0195950601521645</v>
       </c>
       <c r="I6">
-        <v>0.03145394712456895</v>
+        <v>0.01871135597864715</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5806206694319869</v>
+        <v>0.4826539045074831</v>
       </c>
       <c r="L6">
-        <v>0.05793872630020758</v>
+        <v>0.2072783235365563</v>
       </c>
       <c r="M6">
-        <v>0.6248911815835356</v>
+        <v>0.1601307483343799</v>
       </c>
       <c r="N6">
-        <v>0.1187238701042546</v>
+        <v>0.06062487253353765</v>
       </c>
       <c r="O6">
-        <v>0.1476847024031436</v>
+        <v>0.6552128016157894</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1347289832753802</v>
       </c>
       <c r="Q6">
-        <v>2.394655674640035</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1489118708293411</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.992851261077007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7094496477584755</v>
+        <v>0.70588519984193</v>
       </c>
       <c r="C7">
-        <v>0.09581176988156415</v>
+        <v>0.1052125187712889</v>
       </c>
       <c r="D7">
-        <v>0.05674646821816509</v>
+        <v>0.06592489549814218</v>
       </c>
       <c r="E7">
-        <v>0.04047107861752153</v>
+        <v>0.04506447523138313</v>
       </c>
       <c r="F7">
-        <v>0.8811494278329519</v>
+        <v>0.7602425698753521</v>
       </c>
       <c r="G7">
-        <v>0.0008424285419741966</v>
+        <v>0.04686775983436742</v>
       </c>
       <c r="H7">
-        <v>0.02764703624151166</v>
+        <v>0.0187254944512848</v>
       </c>
       <c r="I7">
-        <v>0.03024882155638231</v>
+        <v>0.01800708587629529</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5795154348894265</v>
+        <v>0.4795478426889588</v>
       </c>
       <c r="L7">
-        <v>0.05846855184443456</v>
+        <v>0.2048949748747511</v>
       </c>
       <c r="M7">
-        <v>0.6555379067922331</v>
+        <v>0.1592848745493534</v>
       </c>
       <c r="N7">
-        <v>0.1229724618115213</v>
+        <v>0.06097226025049363</v>
       </c>
       <c r="O7">
-        <v>0.1546431604865113</v>
+        <v>0.6864246884614573</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1393057086340832</v>
       </c>
       <c r="Q7">
-        <v>2.396322945625471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.15607557496336</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.984298530989747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8565032285646623</v>
+        <v>0.8506265694847457</v>
       </c>
       <c r="C8">
-        <v>0.1071079888483553</v>
+        <v>0.1186814109589989</v>
       </c>
       <c r="D8">
-        <v>0.06591524673259386</v>
+        <v>0.07649777804564195</v>
       </c>
       <c r="E8">
-        <v>0.04328047614556318</v>
+        <v>0.04743362625109349</v>
       </c>
       <c r="F8">
-        <v>0.8994033250989517</v>
+        <v>0.7684381169399614</v>
       </c>
       <c r="G8">
-        <v>0.0008388499346762557</v>
+        <v>0.04204619178764357</v>
       </c>
       <c r="H8">
-        <v>0.02268985939368084</v>
+        <v>0.01519643086915992</v>
       </c>
       <c r="I8">
-        <v>0.025181402645571</v>
+        <v>0.01489691324336828</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5766931091214111</v>
+        <v>0.4714570220301688</v>
       </c>
       <c r="L8">
-        <v>0.0608042554021937</v>
+        <v>0.1972563586096356</v>
       </c>
       <c r="M8">
-        <v>0.7899010139810514</v>
+        <v>0.1580020595839251</v>
       </c>
       <c r="N8">
-        <v>0.1414440864316973</v>
+        <v>0.06262361205886302</v>
       </c>
       <c r="O8">
-        <v>0.1852845690263187</v>
+        <v>0.8246428590933021</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.159367230454265</v>
       </c>
       <c r="Q8">
-        <v>2.412890647824966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1874804850886491</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.975988740508043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.145166367657737</v>
+        <v>1.132082276802578</v>
       </c>
       <c r="C9">
-        <v>0.1285992965741372</v>
+        <v>0.1464139939939173</v>
       </c>
       <c r="D9">
-        <v>0.08387938572536768</v>
+        <v>0.09555997472300959</v>
       </c>
       <c r="E9">
-        <v>0.04879434718623088</v>
+        <v>0.05188727209816335</v>
       </c>
       <c r="F9">
-        <v>0.9431047844131939</v>
+        <v>0.8024792305559032</v>
       </c>
       <c r="G9">
-        <v>0.0008322933642820492</v>
+        <v>0.03138982427091186</v>
       </c>
       <c r="H9">
-        <v>0.01488604206344074</v>
+        <v>0.0096427371385992</v>
       </c>
       <c r="I9">
-        <v>0.01694625797362992</v>
+        <v>0.00975225994433071</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5759117847810202</v>
+        <v>0.4654935806632992</v>
       </c>
       <c r="L9">
-        <v>0.06524053715710565</v>
+        <v>0.1868697913951074</v>
       </c>
       <c r="M9">
-        <v>1.052110216887428</v>
+        <v>0.1623354991738104</v>
       </c>
       <c r="N9">
-        <v>0.1774244159952545</v>
+        <v>0.06591165116964692</v>
       </c>
       <c r="O9">
-        <v>0.2453239415270154</v>
+        <v>1.096666679171193</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1988271843935721</v>
       </c>
       <c r="Q9">
-        <v>2.46852066135898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2487160598795093</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.0128991362146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.355703949651001</v>
+        <v>1.339735189763161</v>
       </c>
       <c r="C10">
-        <v>0.1463132709682924</v>
+        <v>0.1660388504607795</v>
       </c>
       <c r="D10">
-        <v>0.09601566365013525</v>
+        <v>0.1114595336855331</v>
       </c>
       <c r="E10">
-        <v>0.05125669662321464</v>
+        <v>0.05397888638360726</v>
       </c>
       <c r="F10">
-        <v>0.9651091571785102</v>
+        <v>0.7995041569523309</v>
       </c>
       <c r="G10">
-        <v>0.0008278466451940936</v>
+        <v>0.03346489815033848</v>
       </c>
       <c r="H10">
-        <v>0.01086139158410049</v>
+        <v>0.006964309419273729</v>
       </c>
       <c r="I10">
-        <v>0.01259993501140766</v>
+        <v>0.007326343277938463</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5694309615317579</v>
+        <v>0.4466152673772896</v>
       </c>
       <c r="L10">
-        <v>0.06733876720603238</v>
+        <v>0.1742675660955619</v>
       </c>
       <c r="M10">
-        <v>1.248731929620561</v>
+        <v>0.1620581020884977</v>
       </c>
       <c r="N10">
-        <v>0.1978884999533932</v>
+        <v>0.06722171304712043</v>
       </c>
       <c r="O10">
-        <v>0.2863280985776413</v>
+        <v>1.295787629498761</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2212234725941329</v>
       </c>
       <c r="Q10">
-        <v>2.485306053634616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2907947958083597</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.961980447126138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.445463841250444</v>
+        <v>1.436998264483464</v>
       </c>
       <c r="C11">
-        <v>0.1670994104493957</v>
+        <v>0.1811562574090857</v>
       </c>
       <c r="D11">
-        <v>0.09062270220073998</v>
+        <v>0.1116044747684413</v>
       </c>
       <c r="E11">
-        <v>0.04113001684919126</v>
+        <v>0.04451262294515956</v>
       </c>
       <c r="F11">
-        <v>0.8736337859371588</v>
+        <v>0.6865521135983315</v>
       </c>
       <c r="G11">
-        <v>0.0008265303477595558</v>
+        <v>0.06748071486136098</v>
       </c>
       <c r="H11">
-        <v>0.02928431776761542</v>
+        <v>0.02564499129339737</v>
       </c>
       <c r="I11">
-        <v>0.01206165528083947</v>
+        <v>0.007469463811610844</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5119965146298497</v>
+        <v>0.3850263707061856</v>
       </c>
       <c r="L11">
-        <v>0.06484973080693734</v>
+        <v>0.1511625401830017</v>
       </c>
       <c r="M11">
-        <v>1.365852427580393</v>
+        <v>0.1400472040586038</v>
       </c>
       <c r="N11">
-        <v>0.1547450525362919</v>
+        <v>0.06672026423301958</v>
       </c>
       <c r="O11">
-        <v>0.2769225978282464</v>
+        <v>1.40284495943294</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1741190232403866</v>
       </c>
       <c r="Q11">
-        <v>2.242956395095689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2818104327274185</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.661019002523417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.478187402284391</v>
+        <v>1.475259621926568</v>
       </c>
       <c r="C12">
-        <v>0.1810656102375958</v>
+        <v>0.1908300629771276</v>
       </c>
       <c r="D12">
-        <v>0.08342312885205416</v>
+        <v>0.1061415657587759</v>
       </c>
       <c r="E12">
-        <v>0.03473576110062648</v>
+        <v>0.03825996808372611</v>
       </c>
       <c r="F12">
-        <v>0.7985492999745105</v>
+        <v>0.6120697173934317</v>
       </c>
       <c r="G12">
-        <v>0.0008262611776739259</v>
+        <v>0.09221817447977543</v>
       </c>
       <c r="H12">
-        <v>0.06820773325975438</v>
+        <v>0.0645813671217681</v>
       </c>
       <c r="I12">
-        <v>0.01186684556445616</v>
+        <v>0.007395308197644113</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4705435174640655</v>
+        <v>0.3495779920448427</v>
       </c>
       <c r="L12">
-        <v>0.06900265587700893</v>
+        <v>0.1391302822824247</v>
       </c>
       <c r="M12">
-        <v>1.422776263911516</v>
+        <v>0.1259610193628884</v>
       </c>
       <c r="N12">
-        <v>0.1185805518434648</v>
+        <v>0.07275850860833266</v>
       </c>
       <c r="O12">
-        <v>0.2603214401686884</v>
+        <v>1.452977547577603</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.134665899841572</v>
       </c>
       <c r="Q12">
-        <v>2.054005132861391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2651288780021872</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.477674290717687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.467141707460712</v>
+        <v>1.467217088149738</v>
       </c>
       <c r="C13">
-        <v>0.1914073203426199</v>
+        <v>0.199518905746757</v>
       </c>
       <c r="D13">
-        <v>0.07467322766076734</v>
+        <v>0.09522451319253378</v>
       </c>
       <c r="E13">
-        <v>0.03072967855092523</v>
+        <v>0.03414945163317373</v>
       </c>
       <c r="F13">
-        <v>0.7282190432718849</v>
+        <v>0.5620875450896676</v>
       </c>
       <c r="G13">
-        <v>0.0008268066695240791</v>
+        <v>0.08685940554440919</v>
       </c>
       <c r="H13">
-        <v>0.1245960774494819</v>
+        <v>0.120768670690012</v>
       </c>
       <c r="I13">
-        <v>0.01235470521601734</v>
+        <v>0.007641775628420611</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4363099983364407</v>
+        <v>0.3296646188888683</v>
       </c>
       <c r="L13">
-        <v>0.0781649381461591</v>
+        <v>0.1329809587742554</v>
       </c>
       <c r="M13">
-        <v>1.437565629982345</v>
+        <v>0.1170517274874587</v>
       </c>
       <c r="N13">
-        <v>0.08649613751249774</v>
+        <v>0.08353024262883224</v>
       </c>
       <c r="O13">
-        <v>0.2374523919848315</v>
+        <v>1.465079841136117</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.0996821553553815</v>
       </c>
       <c r="Q13">
-        <v>1.884687260009869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2416609914564454</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.369467128169845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.439305237372622</v>
+        <v>1.440359453565463</v>
       </c>
       <c r="C14">
-        <v>0.1973216656353571</v>
+        <v>0.2055582335309225</v>
       </c>
       <c r="D14">
-        <v>0.06796225622140639</v>
+        <v>0.08552792458085889</v>
       </c>
       <c r="E14">
-        <v>0.02934877079161768</v>
+        <v>0.03270948165513649</v>
       </c>
       <c r="F14">
-        <v>0.6814397713093072</v>
+        <v>0.5361441205674424</v>
       </c>
       <c r="G14">
-        <v>0.0008275591413357109</v>
+        <v>0.07062597741433052</v>
       </c>
       <c r="H14">
-        <v>0.1745516268463234</v>
+        <v>0.1704865393576824</v>
       </c>
       <c r="I14">
-        <v>0.0131166292597138</v>
+        <v>0.008078501778312486</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4158140519881073</v>
+        <v>0.3213575027321411</v>
       </c>
       <c r="L14">
-        <v>0.08761173236802833</v>
+        <v>0.1306273008337655</v>
       </c>
       <c r="M14">
-        <v>1.429099331690907</v>
+        <v>0.1128304119646071</v>
       </c>
       <c r="N14">
-        <v>0.06684812131886986</v>
+        <v>0.09377965187581339</v>
       </c>
       <c r="O14">
-        <v>0.2188065991155241</v>
+        <v>1.456526240629415</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07822781899290021</v>
       </c>
       <c r="Q14">
-        <v>1.775596616305606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.222386624247342</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.321005740531746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.422816154372214</v>
+        <v>1.423640378956549</v>
       </c>
       <c r="C15">
-        <v>0.198162912938372</v>
+        <v>0.2070525079340371</v>
       </c>
       <c r="D15">
-        <v>0.06603998323697624</v>
+        <v>0.08227976540710813</v>
       </c>
       <c r="E15">
-        <v>0.02918171270319925</v>
+        <v>0.0325614671126182</v>
       </c>
       <c r="F15">
-        <v>0.6700692418202649</v>
+        <v>0.5327441378516014</v>
       </c>
       <c r="G15">
-        <v>0.0008279311299107062</v>
+        <v>0.06235987239052676</v>
       </c>
       <c r="H15">
-        <v>0.1873629824295904</v>
+        <v>0.1831779998585716</v>
       </c>
       <c r="I15">
-        <v>0.01360456689050249</v>
+        <v>0.008420800441069076</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4115769734710284</v>
+        <v>0.321142003650257</v>
       </c>
       <c r="L15">
-        <v>0.09013544130723972</v>
+        <v>0.1306729522322003</v>
       </c>
       <c r="M15">
-        <v>1.418254345603316</v>
+        <v>0.1124250340277992</v>
       </c>
       <c r="N15">
-        <v>0.06237359563213474</v>
+        <v>0.09640744634750931</v>
       </c>
       <c r="O15">
-        <v>0.2129827678224281</v>
+        <v>1.446429893509588</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.07335010607087256</v>
       </c>
       <c r="Q15">
-        <v>1.750370769140531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2163174085595152</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.318481768931036</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.333725897003404</v>
+        <v>1.330797670766145</v>
       </c>
       <c r="C16">
-        <v>0.1884093875354438</v>
+        <v>0.2023065833162576</v>
       </c>
       <c r="D16">
-        <v>0.06289117971913072</v>
+        <v>0.07411749550170299</v>
       </c>
       <c r="E16">
-        <v>0.02898201015951751</v>
+        <v>0.03262048476765467</v>
       </c>
       <c r="F16">
-        <v>0.6739084184028954</v>
+        <v>0.5616951377792532</v>
       </c>
       <c r="G16">
-        <v>0.0008297297609304926</v>
+        <v>0.03483900359241154</v>
       </c>
       <c r="H16">
-        <v>0.1763260410691032</v>
+        <v>0.1715000371497553</v>
       </c>
       <c r="I16">
-        <v>0.01547880591287143</v>
+        <v>0.009484837040521832</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4202094891544697</v>
+        <v>0.3392347446367907</v>
       </c>
       <c r="L16">
-        <v>0.08697044002236254</v>
+        <v>0.1372262719281654</v>
       </c>
       <c r="M16">
-        <v>1.330110142298679</v>
+        <v>0.1184631635910129</v>
       </c>
       <c r="N16">
-        <v>0.06112152416229222</v>
+        <v>0.09276327513169491</v>
       </c>
       <c r="O16">
-        <v>0.2006481259848307</v>
+        <v>1.364492203797028</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.07220261090317237</v>
       </c>
       <c r="Q16">
-        <v>1.773495103611126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2031875562942247</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.410776294994918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.280299020135146</v>
+        <v>1.27478232868981</v>
       </c>
       <c r="C17">
-        <v>0.1777988223337417</v>
+        <v>0.1943554194532027</v>
       </c>
       <c r="D17">
-        <v>0.06399804235870477</v>
+        <v>0.07346933083079676</v>
       </c>
       <c r="E17">
-        <v>0.02931879345480298</v>
+        <v>0.03304906440215083</v>
       </c>
       <c r="F17">
-        <v>0.7013246357228695</v>
+        <v>0.596094823532006</v>
       </c>
       <c r="G17">
-        <v>0.0008307143373581733</v>
+        <v>0.02936347486329272</v>
       </c>
       <c r="H17">
-        <v>0.1395525399408371</v>
+        <v>0.1343602134017203</v>
       </c>
       <c r="I17">
-        <v>0.01656029103150747</v>
+        <v>0.01012013440678938</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.437448366449015</v>
+        <v>0.3575674822229136</v>
       </c>
       <c r="L17">
-        <v>0.07901690975468512</v>
+        <v>0.1440546664682909</v>
       </c>
       <c r="M17">
-        <v>1.267270288071956</v>
+        <v>0.1249150283359484</v>
       </c>
       <c r="N17">
-        <v>0.07001464183056783</v>
+        <v>0.08427331422846152</v>
       </c>
       <c r="O17">
-        <v>0.200979985685052</v>
+        <v>1.305214048638078</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.08207321788537314</v>
       </c>
       <c r="Q17">
-        <v>1.848349718229883</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2033075878703841</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.503969255059815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.252108993241933</v>
+        <v>1.243650015774676</v>
       </c>
       <c r="C18">
-        <v>0.1650317414467253</v>
+        <v>0.1835422116439815</v>
       </c>
       <c r="D18">
-        <v>0.06889964567454854</v>
+        <v>0.07806760336841023</v>
       </c>
       <c r="E18">
-        <v>0.03144589193060332</v>
+        <v>0.03506090766184977</v>
       </c>
       <c r="F18">
-        <v>0.7555200771720934</v>
+        <v>0.64725903660662</v>
       </c>
       <c r="G18">
-        <v>0.000831057874152604</v>
+        <v>0.02809093205706237</v>
       </c>
       <c r="H18">
-        <v>0.08698339289733781</v>
+        <v>0.0816825315762415</v>
       </c>
       <c r="I18">
-        <v>0.01663893301113983</v>
+        <v>0.01000463226114601</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4666873167643111</v>
+        <v>0.3824449444762656</v>
       </c>
       <c r="L18">
-        <v>0.06909641729857974</v>
+        <v>0.1533258467245471</v>
       </c>
       <c r="M18">
-        <v>1.218445163784509</v>
+        <v>0.1340791796846776</v>
       </c>
       <c r="N18">
-        <v>0.09114997152011739</v>
+        <v>0.0735203668280846</v>
       </c>
       <c r="O18">
-        <v>0.2123535394016081</v>
+        <v>1.25970326715958</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1052486013457496</v>
       </c>
       <c r="Q18">
-        <v>1.985519149608123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2148356062262842</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.630900622341301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.244371195575582</v>
+        <v>1.232563560460619</v>
       </c>
       <c r="C19">
-        <v>0.1537290779516098</v>
+        <v>0.1738865852444889</v>
       </c>
       <c r="D19">
-        <v>0.07693931477805904</v>
+        <v>0.08661973524601763</v>
       </c>
       <c r="E19">
-        <v>0.03672254487660265</v>
+        <v>0.04002291956534521</v>
       </c>
       <c r="F19">
-        <v>0.8274869277521191</v>
+        <v>0.7099925697000842</v>
       </c>
       <c r="G19">
-        <v>0.0008308386308587042</v>
+        <v>0.02741233442989266</v>
       </c>
       <c r="H19">
-        <v>0.04107055264120163</v>
+        <v>0.03593380654110945</v>
       </c>
       <c r="I19">
-        <v>0.01648086840622831</v>
+        <v>0.009977423050778533</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5040516072429213</v>
+        <v>0.4118244607238388</v>
       </c>
       <c r="L19">
-        <v>0.06301439771102491</v>
+        <v>0.1641762037589061</v>
       </c>
       <c r="M19">
-        <v>1.18673173379301</v>
+        <v>0.1451975361934146</v>
       </c>
       <c r="N19">
-        <v>0.1252984970610953</v>
+        <v>0.06616089953033644</v>
       </c>
       <c r="O19">
-        <v>0.2322937533800911</v>
+        <v>1.23141936726779</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1424492039242153</v>
       </c>
       <c r="Q19">
-        <v>2.162595205989305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.235179887584394</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.780176470266596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.297506685324606</v>
+        <v>1.28084035330798</v>
       </c>
       <c r="C20">
-        <v>0.1437070407203578</v>
+        <v>0.165015003845383</v>
       </c>
       <c r="D20">
-        <v>0.09318822729984788</v>
+        <v>0.1057981018936403</v>
       </c>
       <c r="E20">
-        <v>0.05036906970948962</v>
+        <v>0.0529977758010407</v>
       </c>
       <c r="F20">
-        <v>0.9520464461272695</v>
+        <v>0.8053485279701036</v>
       </c>
       <c r="G20">
-        <v>0.0008290399373603116</v>
+        <v>0.0274884036481895</v>
       </c>
       <c r="H20">
-        <v>0.01186107673740056</v>
+        <v>0.007579331871804484</v>
       </c>
       <c r="I20">
-        <v>0.01459315400835237</v>
+        <v>0.008921331775636254</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5659588820373287</v>
+        <v>0.4532182822680255</v>
       </c>
       <c r="L20">
-        <v>0.06650805410931948</v>
+        <v>0.1780575523338079</v>
       </c>
       <c r="M20">
-        <v>1.20012773250042</v>
+        <v>0.1627197448187019</v>
       </c>
       <c r="N20">
-        <v>0.1935140244479001</v>
+        <v>0.06682135506394138</v>
       </c>
       <c r="O20">
-        <v>0.2756325136678868</v>
+        <v>1.248985975880004</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2164613445294918</v>
       </c>
       <c r="Q20">
-        <v>2.459946464124727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2796054342267951</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.991806880762198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.460314853182069</v>
+        <v>1.449178112290753</v>
       </c>
       <c r="C21">
-        <v>0.1551682918623527</v>
+        <v>0.168881549625695</v>
       </c>
       <c r="D21">
-        <v>0.1044811641925349</v>
+        <v>0.1304462358783951</v>
       </c>
       <c r="E21">
-        <v>0.05461657622147342</v>
+        <v>0.05805773959947835</v>
       </c>
       <c r="F21">
-        <v>0.9894905852212617</v>
+        <v>0.7609042396408867</v>
       </c>
       <c r="G21">
-        <v>0.0008255818782163023</v>
+        <v>0.08811132685389822</v>
       </c>
       <c r="H21">
-        <v>0.008596924866291517</v>
+        <v>0.005484570304735537</v>
       </c>
       <c r="I21">
-        <v>0.0114032058152036</v>
+        <v>0.00728148832398734</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5723299527563235</v>
+        <v>0.4175060937035759</v>
       </c>
       <c r="L21">
-        <v>0.06959796794994499</v>
+        <v>0.1618025759402268</v>
       </c>
       <c r="M21">
-        <v>1.346220871787608</v>
+        <v>0.1539485997873271</v>
       </c>
       <c r="N21">
-        <v>0.2192510804094638</v>
+        <v>0.06804469097821642</v>
       </c>
       <c r="O21">
-        <v>0.3121453539654553</v>
+        <v>1.384384940295291</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2438751718013492</v>
       </c>
       <c r="Q21">
-        <v>2.524575663731156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3181505557082431</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.818845025741936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.567671450482891</v>
+        <v>1.561181188463593</v>
       </c>
       <c r="C22">
-        <v>0.1625505893995864</v>
+        <v>0.1707437592864949</v>
       </c>
       <c r="D22">
-        <v>0.1110644023192293</v>
+        <v>0.1471571814659853</v>
       </c>
       <c r="E22">
-        <v>0.05669551139141404</v>
+        <v>0.06091061919804375</v>
       </c>
       <c r="F22">
-        <v>1.011301155728368</v>
+        <v>0.7265030283373406</v>
       </c>
       <c r="G22">
-        <v>0.0008233948777583222</v>
+        <v>0.1761654601109086</v>
       </c>
       <c r="H22">
-        <v>0.00692003510953737</v>
+        <v>0.004428213847652296</v>
       </c>
       <c r="I22">
-        <v>0.009297911021512562</v>
+        <v>0.005970563423381314</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5755078950087835</v>
+        <v>0.3927255796027076</v>
       </c>
       <c r="L22">
-        <v>0.0712155852122347</v>
+        <v>0.1515514519129066</v>
       </c>
       <c r="M22">
-        <v>1.442178038150246</v>
+        <v>0.1472018579267775</v>
       </c>
       <c r="N22">
-        <v>0.2322677323916054</v>
+        <v>0.06858414233784416</v>
       </c>
       <c r="O22">
-        <v>0.3343109905835604</v>
+        <v>1.471925691137358</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2576745286958158</v>
       </c>
       <c r="Q22">
-        <v>2.561717446935205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3417077074020582</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.695864636691368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.511488897906133</v>
+        <v>1.501217601488008</v>
       </c>
       <c r="C23">
-        <v>0.1578312244404572</v>
+        <v>0.1700887199241947</v>
       </c>
       <c r="D23">
-        <v>0.1073853877384749</v>
+        <v>0.1364976463704011</v>
       </c>
       <c r="E23">
-        <v>0.05565538107189383</v>
+        <v>0.05926210302156498</v>
       </c>
       <c r="F23">
-        <v>1.002100356609922</v>
+        <v>0.7546716646813181</v>
       </c>
       <c r="G23">
-        <v>0.0008245432018193502</v>
+        <v>0.1106619489155065</v>
       </c>
       <c r="H23">
-        <v>0.007778567869915431</v>
+        <v>0.004952672592705487</v>
       </c>
       <c r="I23">
-        <v>0.01003780000321264</v>
+        <v>0.006228543038514722</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5756059460379674</v>
+        <v>0.4110043273683495</v>
       </c>
       <c r="L23">
-        <v>0.07045038371271772</v>
+        <v>0.1585678941652571</v>
       </c>
       <c r="M23">
-        <v>1.389817132208094</v>
+        <v>0.1530059370103842</v>
       </c>
       <c r="N23">
-        <v>0.2248117296550305</v>
+        <v>0.06845896705270338</v>
       </c>
       <c r="O23">
-        <v>0.3223960783230098</v>
+        <v>1.425913835453258</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2498854360401879</v>
       </c>
       <c r="Q23">
-        <v>2.548969187061971</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3288905710426704</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.789272944872025</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.296943130615233</v>
+        <v>1.279843735481307</v>
       </c>
       <c r="C24">
-        <v>0.1413767827931025</v>
+        <v>0.1626209649839296</v>
       </c>
       <c r="D24">
-        <v>0.09378511101686371</v>
+        <v>0.1063751102421833</v>
       </c>
       <c r="E24">
-        <v>0.05159849206994238</v>
+        <v>0.05416516797995996</v>
       </c>
       <c r="F24">
-        <v>0.9645774503465319</v>
+        <v>0.8167436028682928</v>
       </c>
       <c r="G24">
-        <v>0.0008290109270021571</v>
+        <v>0.02723009335398885</v>
       </c>
       <c r="H24">
-        <v>0.01159530533690997</v>
+        <v>0.007344671770516314</v>
       </c>
       <c r="I24">
-        <v>0.01399451045304634</v>
+        <v>0.008246508768360528</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5736943820956917</v>
+        <v>0.4596476459641643</v>
       </c>
       <c r="L24">
-        <v>0.06735467879537538</v>
+        <v>0.18043871329116</v>
       </c>
       <c r="M24">
-        <v>1.193741536110764</v>
+        <v>0.165141580700368</v>
       </c>
       <c r="N24">
-        <v>0.1975423264355314</v>
+        <v>0.06742865768195916</v>
       </c>
       <c r="O24">
-        <v>0.2774901799746985</v>
+        <v>1.24301372987324</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2208807210336943</v>
       </c>
       <c r="Q24">
-        <v>2.492956996109427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2815005167931801</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.021129152474515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.065516914627693</v>
+        <v>1.053919127613625</v>
       </c>
       <c r="C25">
-        <v>0.1238716758456988</v>
+        <v>0.140816937138041</v>
       </c>
       <c r="D25">
-        <v>0.07923777194307746</v>
+        <v>0.08989396438508379</v>
       </c>
       <c r="E25">
-        <v>0.04720575471320565</v>
+        <v>0.05051037151418747</v>
       </c>
       <c r="F25">
-        <v>0.9269503292411372</v>
+        <v>0.7942097527157088</v>
       </c>
       <c r="G25">
-        <v>0.0008340411233673985</v>
+        <v>0.03277764657695226</v>
       </c>
       <c r="H25">
-        <v>0.01680352957812348</v>
+        <v>0.010975439715262</v>
       </c>
       <c r="I25">
-        <v>0.01946648783421345</v>
+        <v>0.01153932319453777</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5730654734119476</v>
+        <v>0.4670705936307975</v>
       </c>
       <c r="L25">
-        <v>0.06391836455133681</v>
+        <v>0.1896514541559142</v>
       </c>
       <c r="M25">
-        <v>0.9827977088907289</v>
+        <v>0.1607336489104121</v>
       </c>
       <c r="N25">
-        <v>0.168385730657711</v>
+        <v>0.0649995123564171</v>
       </c>
       <c r="O25">
-        <v>0.22918969626323</v>
+        <v>1.025673238585455</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1888835393919805</v>
       </c>
       <c r="Q25">
-        <v>2.440854273924401</v>
+        <v>0.2321829694316229</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2.00647190221423</v>
       </c>
     </row>
   </sheetData>
